--- a/Config.xlsx
+++ b/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\RPA-Project\RPA_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\RPA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798676BE-3A8F-4A07-AAF1-1A41A78029CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6053E799-FE03-47A6-8F9B-E4D43FE78E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1128" windowWidth="21624" windowHeight="11112" activeTab="1" xr2:uid="{D699BE3A-C0A9-49CA-90B2-2EEF169DF06B}"/>
+    <workbookView xWindow="1416" yWindow="1128" windowWidth="21624" windowHeight="11112" xr2:uid="{D699BE3A-C0A9-49CA-90B2-2EEF169DF06B}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -58,13 +58,22 @@
     <t>productsFilePath</t>
   </si>
   <si>
-    <t>C:\Users\User\Desktop\RPA-Project\RPA_Project\Products.xlsx</t>
-  </si>
-  <si>
     <t>bablblabla</t>
   </si>
   <si>
     <t>blablaba</t>
+  </si>
+  <si>
+    <t>C:\Users\User\Documents\GitHub\RPA-Project\Products.xlsx</t>
+  </si>
+  <si>
+    <t>AltexURL</t>
+  </si>
+  <si>
+    <t>https://altex.ro/</t>
+  </si>
+  <si>
+    <t>URL Altex</t>
   </si>
 </sst>
 </file>
@@ -114,9 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,16 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762F8D4B-B388-4D7A-A912-EB2B21DD1510}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -457,14 +469,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -476,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB672D-FCB7-42D9-9AAA-C0F5EA6FC9E5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,15 +526,15 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\RPA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6053E799-FE03-47A6-8F9B-E4D43FE78E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC01FFBE-445B-4536-8884-3F68E1752414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1128" windowWidth="21624" windowHeight="11112" xr2:uid="{D699BE3A-C0A9-49CA-90B2-2EEF169DF06B}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{D699BE3A-C0A9-49CA-90B2-2EEF169DF06B}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>eMAGURL</t>
-  </si>
-  <si>
     <t>https://www.emag.ro/</t>
   </si>
   <si>
@@ -58,22 +55,34 @@
     <t>productsFilePath</t>
   </si>
   <si>
-    <t>bablblabla</t>
-  </si>
-  <si>
-    <t>blablaba</t>
-  </si>
-  <si>
     <t>C:\Users\User\Documents\GitHub\RPA-Project\Products.xlsx</t>
   </si>
   <si>
-    <t>AltexURL</t>
-  </si>
-  <si>
     <t>https://altex.ro/</t>
   </si>
   <si>
     <t>URL Altex</t>
+  </si>
+  <si>
+    <t>CEL</t>
+  </si>
+  <si>
+    <t>https://www.cel.ro/</t>
+  </si>
+  <si>
+    <t>URL CEL</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>eMag</t>
+  </si>
+  <si>
+    <t>Flanco</t>
+  </si>
+  <si>
+    <t>https://www.flanco.ro/</t>
   </si>
 </sst>
 </file>
@@ -445,16 +454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762F8D4B-B388-4D7A-A912-EB2B21DD1510}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,37 +481,60 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB672D-FCB7-42D9-9AAA-C0F5EA6FC9E5}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,18 +557,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\RPA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC01FFBE-445B-4536-8884-3F68E1752414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13AE628-19C1-4680-869A-2B42EC46D902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{D699BE3A-C0A9-49CA-90B2-2EEF169DF06B}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{D699BE3A-C0A9-49CA-90B2-2EEF169DF06B}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -52,37 +52,13 @@
     <t>URL eMAG</t>
   </si>
   <si>
+    <t>C:\Users\User\Documents\GitHub\RPA-Project\Products.xlsx</t>
+  </si>
+  <si>
+    <t>eMag</t>
+  </si>
+  <si>
     <t>productsFilePath</t>
-  </si>
-  <si>
-    <t>C:\Users\User\Documents\GitHub\RPA-Project\Products.xlsx</t>
-  </si>
-  <si>
-    <t>https://altex.ro/</t>
-  </si>
-  <si>
-    <t>URL Altex</t>
-  </si>
-  <si>
-    <t>CEL</t>
-  </si>
-  <si>
-    <t>https://www.cel.ro/</t>
-  </si>
-  <si>
-    <t>URL CEL</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>eMag</t>
-  </si>
-  <si>
-    <t>Flanco</t>
-  </si>
-  <si>
-    <t>https://www.flanco.ro/</t>
   </si>
 </sst>
 </file>
@@ -454,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762F8D4B-B388-4D7A-A912-EB2B21DD1510}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,46 +457,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -533,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB672D-FCB7-42D9-9AAA-C0F5EA6FC9E5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,10 +500,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
